--- a/Task2/Results/GroupByPropertyID/CP.xlsx
+++ b/Task2/Results/GroupByPropertyID/CP.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>2988</v>
+        <v>2684</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -511,7 +511,7 @@
         <v>26000</v>
       </c>
       <c r="I2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>2989</v>
+        <v>2685</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -549,7 +549,7 @@
         <v>26000</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>3629</v>
+        <v>3244</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>3952</v>
+        <v>3525</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>6442</v>
+        <v>5765</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>7170</v>
+        <v>6411</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52200</v>
+        <v>26100</v>
       </c>
       <c r="H7">
-        <v>52200</v>
+        <v>26100</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>10697</v>
+        <v>9664</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -733,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H8">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>11523</v>
+        <v>10396</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>0</v>
